--- a/part_1/output/assignments_extended_judges_with_email copy.xlsx
+++ b/part_1/output/assignments_extended_judges_with_email copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="152">
   <si>
     <t>Judge</t>
   </si>
@@ -160,10 +160,16 @@
     <t>Dong</t>
   </si>
   <si>
-    <t>bdong@syr.edu</t>
+    <t>preetamkamal@gmail.com</t>
   </si>
   <si>
     <t>Smart fibers for energy conversion and storage</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
   <si>
     <t xml:space="preserve">Zhenyu </t>
@@ -471,7 +477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,13 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -542,14 +542,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -561,7 +561,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +876,7 @@
     <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="26.719285714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -891,7 +891,7 @@
     <col min="18" max="18" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -966,9 +966,9 @@
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -979,7 +979,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -998,9 +998,9 @@
       <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1011,7 +1011,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1030,9 +1030,9 @@
       <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1043,7 +1043,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1056,15 +1056,15 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1075,7 +1075,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1094,9 +1094,9 @@
       <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1107,7 +1107,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1120,15 +1120,15 @@
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1139,7 +1139,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1158,9 +1158,9 @@
       <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1171,7 +1171,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1190,9 +1190,9 @@
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1203,7 +1203,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1228,10 +1228,18 @@
       <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1239,28 +1247,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1271,15 +1279,15 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1288,11 +1296,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1303,15 +1311,15 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1320,15 +1328,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1339,15 +1347,15 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>27</v>
@@ -1356,11 +1364,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1371,15 +1379,15 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1388,11 +1396,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1403,15 +1411,15 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>27</v>
@@ -1420,15 +1428,15 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1439,15 +1447,15 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>27</v>
@@ -1456,11 +1464,11 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1471,15 +1479,15 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1488,11 +1496,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1503,15 +1511,15 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
@@ -1520,11 +1528,11 @@
         <v>2</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1535,15 +1543,15 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
@@ -1552,11 +1560,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1567,15 +1575,15 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
@@ -1584,11 +1592,11 @@
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1599,15 +1607,15 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>36</v>
@@ -1616,15 +1624,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1635,28 +1643,28 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1667,28 +1675,28 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1699,32 +1707,32 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1735,24 +1743,24 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3">
         <v>6</v>
@@ -1760,7 +1768,7 @@
       <c r="H26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1771,15 +1779,15 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>36</v>
@@ -1788,11 +1796,11 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1803,15 +1811,15 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
@@ -1820,11 +1828,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1835,15 +1843,15 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>36</v>
@@ -1852,19 +1860,19 @@
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G29" s="3">
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I29" s="3">
         <v>4</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1875,15 +1883,15 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>36</v>
@@ -1892,19 +1900,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I30" s="3">
         <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1915,36 +1923,36 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I31" s="3">
         <v>7</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1955,28 +1963,28 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -1987,15 +1995,15 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>20</v>
@@ -2004,11 +2012,11 @@
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2024,10 +2032,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>20</v>
@@ -2036,11 +2044,11 @@
         <v>2</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2056,10 +2064,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
@@ -2068,11 +2076,11 @@
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2088,10 +2096,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>20</v>
@@ -2100,11 +2108,11 @@
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2120,10 +2128,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>36</v>
@@ -2132,11 +2140,11 @@
         <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2152,31 +2160,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I38" s="3">
         <v>7</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2192,23 +2200,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2224,23 +2232,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2256,31 +2264,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G41" s="3">
         <v>5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I41" s="3">
         <v>8</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
